--- a/FINAL/old run/output/COMBINED.xlsx
+++ b/FINAL/old run/output/COMBINED.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="5000" yWindow="1340" windowWidth="18520" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I53"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,24 +994,132 @@
       <c r="A15">
         <v>250</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.03</v>
+      </c>
+      <c r="E15">
+        <v>0.99</v>
+      </c>
+      <c r="F15">
+        <v>0.99</v>
+      </c>
+      <c r="G15">
+        <v>0.97</v>
+      </c>
       <c r="I15">
         <v>250</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="L15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.95</v>
+      </c>
+      <c r="N15">
+        <v>0.94</v>
+      </c>
+      <c r="O15">
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>500</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.03</v>
+      </c>
+      <c r="E16">
+        <v>0.99</v>
+      </c>
+      <c r="F16">
+        <v>0.99</v>
+      </c>
+      <c r="G16">
+        <v>0.98</v>
+      </c>
       <c r="I16">
         <v>500</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+      <c r="L16">
+        <v>0.08</v>
+      </c>
+      <c r="M16">
+        <v>0.93</v>
+      </c>
+      <c r="N16">
+        <v>0.91</v>
+      </c>
+      <c r="O16">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1000</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>0.99</v>
+      </c>
+      <c r="F17">
+        <v>0.99</v>
+      </c>
+      <c r="G17">
+        <v>0.97</v>
+      </c>
       <c r="I17">
         <v>1000</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.95</v>
+      </c>
+      <c r="N17">
+        <v>0.94</v>
+      </c>
+      <c r="O17">
+        <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1231,24 +1346,132 @@
       <c r="A24">
         <v>250</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.04</v>
+      </c>
+      <c r="E24">
+        <v>0.97</v>
+      </c>
+      <c r="F24">
+        <v>0.97</v>
+      </c>
+      <c r="G24">
+        <v>0.88</v>
+      </c>
       <c r="I24">
         <v>250</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>0.3</v>
+      </c>
+      <c r="L24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.92</v>
+      </c>
+      <c r="N24">
+        <v>0.91</v>
+      </c>
+      <c r="O24">
+        <v>0.68</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>500</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.01</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="I25">
         <v>500</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <v>0.06</v>
+      </c>
+      <c r="M25">
+        <v>0.95</v>
+      </c>
+      <c r="N25">
+        <v>0.94</v>
+      </c>
+      <c r="O25">
+        <v>0.77</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1000</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.02</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.98</v>
+      </c>
       <c r="I26">
         <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>0.3</v>
+      </c>
+      <c r="L26">
+        <v>0.06</v>
+      </c>
+      <c r="M26">
+        <v>0.95</v>
+      </c>
+      <c r="N26">
+        <v>0.94</v>
+      </c>
+      <c r="O26">
+        <v>0.78</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1496,6 +1719,24 @@
       <c r="I33">
         <v>250</v>
       </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>0.3</v>
+      </c>
+      <c r="L33">
+        <v>0.05</v>
+      </c>
+      <c r="M33">
+        <v>0.94</v>
+      </c>
+      <c r="N33">
+        <v>0.94</v>
+      </c>
+      <c r="O33">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1522,6 +1763,24 @@
       <c r="I34">
         <v>500</v>
       </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>0.3</v>
+      </c>
+      <c r="L34">
+        <v>0.05</v>
+      </c>
+      <c r="M34">
+        <v>0.95</v>
+      </c>
+      <c r="N34">
+        <v>0.95</v>
+      </c>
+      <c r="O34">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -1548,6 +1807,24 @@
       <c r="I35">
         <v>1000</v>
       </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>0.3</v>
+      </c>
+      <c r="L35">
+        <v>0.05</v>
+      </c>
+      <c r="M35">
+        <v>0.94</v>
+      </c>
+      <c r="N35">
+        <v>0.94</v>
+      </c>
+      <c r="O35">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1597,9 +1874,21 @@
       <c r="A38">
         <v>25</v>
       </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="I38">
         <v>25</v>
       </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1758,6 +2047,24 @@
       <c r="I42">
         <v>250</v>
       </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0.3</v>
+      </c>
+      <c r="L42">
+        <v>0.03</v>
+      </c>
+      <c r="M42">
+        <v>0.97</v>
+      </c>
+      <c r="N42">
+        <v>0.97</v>
+      </c>
+      <c r="O42">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1784,6 +2091,24 @@
       <c r="I43">
         <v>500</v>
       </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0.3</v>
+      </c>
+      <c r="L43">
+        <v>0.05</v>
+      </c>
+      <c r="M43">
+        <v>0.94</v>
+      </c>
+      <c r="N43">
+        <v>0.94</v>
+      </c>
+      <c r="O43">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1810,6 +2135,24 @@
       <c r="I44">
         <v>1000</v>
       </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>0.3</v>
+      </c>
+      <c r="L44">
+        <v>0.04</v>
+      </c>
+      <c r="M44">
+        <v>0.95</v>
+      </c>
+      <c r="N44">
+        <v>0.94</v>
+      </c>
+      <c r="O44">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1859,17 +2202,41 @@
       <c r="A47">
         <v>25</v>
       </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="I47">
         <v>25</v>
       </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50</v>
       </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="I48">
         <v>50</v>
       </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -1984,6 +2351,24 @@
       <c r="I51">
         <v>250</v>
       </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0.3</v>
+      </c>
+      <c r="L51">
+        <v>0.04</v>
+      </c>
+      <c r="M51">
+        <v>0.92</v>
+      </c>
+      <c r="N51">
+        <v>0.92</v>
+      </c>
+      <c r="O51">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -2009,6 +2394,24 @@
       </c>
       <c r="I52">
         <v>500</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0.3</v>
+      </c>
+      <c r="L52">
+        <v>0.03</v>
+      </c>
+      <c r="M52">
+        <v>0.94</v>
+      </c>
+      <c r="N52">
+        <v>0.94</v>
+      </c>
+      <c r="O52">
+        <v>0.38</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
